--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CC2959-20E4-BF42-8DA3-817594AF4CB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBD1001-BEEF-1643-9368-47191AABD480}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16680" xr2:uid="{836CA092-02C0-B74E-BDA7-EEABC1742BC7}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{836CA092-02C0-B74E-BDA7-EEABC1742BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -122,12 +122,18 @@
   <si>
     <t>Sheriff's</t>
   </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>8.15.21</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,6 +149,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -225,17 +238,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2F14DC-9EA0-9F4C-829E-B310BBF5282B}">
   <dimension ref="A1:H401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D289" sqref="D289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1791,8 +1819,12 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="B54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="D54" s="4" t="s">
         <v>13</v>
       </c>
@@ -2343,8 +2375,12 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D78" s="4" t="s">
         <v>13</v>
       </c>
@@ -2435,8 +2471,12 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="B82" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="D82" s="4" t="s">
         <v>13</v>
       </c>
@@ -2458,8 +2498,12 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="B83" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="D83" s="4" t="s">
         <v>12</v>
       </c>
@@ -2711,8 +2755,12 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+      <c r="B94" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D94" s="4" t="s">
         <v>13</v>
       </c>
@@ -2826,8 +2874,12 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="B99" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D99" s="4" t="s">
         <v>12</v>
       </c>
@@ -2849,8 +2901,12 @@
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="B100" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D100" s="4" t="s">
         <v>12</v>
       </c>
@@ -6805,8 +6861,12 @@
         <f t="shared" si="4"/>
         <v>271</v>
       </c>
-      <c r="B272" s="4"/>
-      <c r="C272" s="4"/>
+      <c r="B272" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D272" s="4" t="s">
         <v>12</v>
       </c>
@@ -7219,8 +7279,12 @@
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
-      <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
+      <c r="B290" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D290" s="4" t="s">
         <v>12</v>
       </c>
@@ -7265,8 +7329,12 @@
         <f t="shared" si="4"/>
         <v>291</v>
       </c>
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
+      <c r="B292" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="D292" s="4" t="s">
         <v>13</v>
       </c>

--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBD1001-BEEF-1643-9368-47191AABD480}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515CCA57-50FF-604A-99A6-EE343D01BB14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{836CA092-02C0-B74E-BDA7-EEABC1742BC7}"/>
+    <workbookView xWindow="760" yWindow="1200" windowWidth="28040" windowHeight="16640" xr2:uid="{836CA092-02C0-B74E-BDA7-EEABC1742BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>8.15.21</t>
+  </si>
+  <si>
+    <t>8.16.21</t>
   </si>
 </sst>
 </file>
@@ -580,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2F14DC-9EA0-9F4C-829E-B310BBF5282B}">
   <dimension ref="A1:H401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="117" workbookViewId="0">
-      <selection activeCell="D289" sqref="D289"/>
+    <sheetView tabSelected="1" topLeftCell="A370" zoomScale="117" workbookViewId="0">
+      <selection activeCell="C380" sqref="C380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,8 +741,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1083,8 +1090,12 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D22" s="4" t="s">
         <v>12</v>
       </c>
@@ -2448,8 +2459,12 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="B81" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D81" s="4" t="s">
         <v>13</v>
       </c>
@@ -2709,8 +2724,12 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="B92" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D92" s="4" t="s">
         <v>13</v>
       </c>
@@ -2805,8 +2824,12 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="B96" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D96" s="4" t="s">
         <v>12</v>
       </c>
@@ -2928,8 +2951,12 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="B101" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D101" s="4" t="s">
         <v>12</v>
       </c>
@@ -3273,8 +3300,12 @@
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+      <c r="B116" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D116" s="4" t="s">
         <v>12</v>
       </c>
@@ -4377,8 +4408,12 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
+      <c r="B164" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D164" s="4" t="s">
         <v>12</v>
       </c>
@@ -4469,8 +4504,12 @@
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
+      <c r="B168" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D168" s="4" t="s">
         <v>12</v>
       </c>
@@ -5205,8 +5244,12 @@
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
-      <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
+      <c r="B200" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D200" s="4" t="s">
         <v>13</v>
       </c>
@@ -6631,8 +6674,12 @@
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
-      <c r="B262" s="4"/>
-      <c r="C262" s="4"/>
+      <c r="B262" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D262" s="4" t="s">
         <v>13</v>
       </c>
@@ -6746,8 +6793,12 @@
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
-      <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
+      <c r="B267" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D267" s="4" t="s">
         <v>12</v>
       </c>
@@ -6911,8 +6962,12 @@
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
-      <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
+      <c r="B274" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D274" s="4" t="s">
         <v>13</v>
       </c>
@@ -7049,8 +7104,12 @@
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
-      <c r="B280" s="4"/>
-      <c r="C280" s="4"/>
+      <c r="B280" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D280" s="4" t="s">
         <v>12</v>
       </c>
@@ -9518,8 +9577,12 @@
         <f t="shared" si="5"/>
         <v>386</v>
       </c>
-      <c r="B387" s="4"/>
-      <c r="C387" s="4"/>
+      <c r="B387" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D387" s="4" t="s">
         <v>13</v>
       </c>
@@ -9610,8 +9673,12 @@
         <f t="shared" si="6"/>
         <v>390</v>
       </c>
-      <c r="B391" s="4"/>
-      <c r="C391" s="4"/>
+      <c r="B391" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D391" s="4" t="s">
         <v>13</v>
       </c>

--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515CCA57-50FF-604A-99A6-EE343D01BB14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6BA4F2-F53B-BF44-90B1-CA58DB9C3C0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1200" windowWidth="28040" windowHeight="16640" xr2:uid="{836CA092-02C0-B74E-BDA7-EEABC1742BC7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{836CA092-02C0-B74E-BDA7-EEABC1742BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>8.16.21</t>
+  </si>
+  <si>
+    <t>8.17.21</t>
+  </si>
+  <si>
+    <t>tested?</t>
   </si>
 </sst>
 </file>
@@ -258,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -267,6 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2F14DC-9EA0-9F4C-829E-B310BBF5282B}">
-  <dimension ref="A1:H401"/>
+  <dimension ref="A1:I401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C380" sqref="C380"/>
+    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B380" sqref="B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,7 +603,7 @@
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +628,11 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -644,7 +654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <f>A2+1</f>
         <v>2</v>
@@ -667,7 +677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -690,7 +700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -713,7 +723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -736,7 +746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -763,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -786,7 +796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -809,7 +819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -832,7 +842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -855,7 +865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -878,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -901,13 +911,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
@@ -924,7 +938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -947,7 +961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1301,8 +1315,12 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
@@ -1531,8 +1549,12 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D41" s="4" t="s">
         <v>13</v>
       </c>
@@ -2632,8 +2654,12 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+      <c r="B88" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
@@ -4807,8 +4833,12 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
+      <c r="B181" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D181" s="4" t="s">
         <v>13</v>
       </c>
@@ -5708,8 +5738,12 @@
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
-      <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
+      <c r="B220" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D220" s="4" t="s">
         <v>12</v>
       </c>
@@ -9117,8 +9151,12 @@
         <f t="shared" si="5"/>
         <v>366</v>
       </c>
-      <c r="B367" s="4"/>
-      <c r="C367" s="4"/>
+      <c r="B367" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D367" s="4" t="s">
         <v>13</v>
       </c>
@@ -9416,8 +9454,12 @@
         <f t="shared" si="5"/>
         <v>379</v>
       </c>
-      <c r="B380" s="4"/>
-      <c r="C380" s="4"/>
+      <c r="B380" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D380" s="4" t="s">
         <v>12</v>
       </c>

--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6BA4F2-F53B-BF44-90B1-CA58DB9C3C0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C27389-40E5-9141-8B78-6E81A53B33ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{836CA092-02C0-B74E-BDA7-EEABC1742BC7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2F14DC-9EA0-9F4C-829E-B310BBF5282B}">
   <dimension ref="A1:I401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="117" workbookViewId="0">
-      <selection activeCell="B380" sqref="B380"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B400" sqref="B400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9926,7 +9926,9 @@
         <f t="shared" si="6"/>
         <v>399</v>
       </c>
-      <c r="B400" s="4"/>
+      <c r="B400" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C400" s="4"/>
       <c r="D400" s="4" t="s">
         <v>13</v>

--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C27389-40E5-9141-8B78-6E81A53B33ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AC6E9F-6B06-5242-8653-D656F4EFFD5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{836CA092-02C0-B74E-BDA7-EEABC1742BC7}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{836CA092-02C0-B74E-BDA7-EEABC1742BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -136,6 +136,27 @@
   </si>
   <si>
     <t>tested?</t>
+  </si>
+  <si>
+    <t>8.23.21</t>
+  </si>
+  <si>
+    <t>8.25.21</t>
+  </si>
+  <si>
+    <t>8.19.21</t>
+  </si>
+  <si>
+    <t>8.24.21</t>
+  </si>
+  <si>
+    <t>9.23.21</t>
+  </si>
+  <si>
+    <t>8.18.21</t>
+  </si>
+  <si>
+    <t>8.20.21</t>
   </si>
 </sst>
 </file>
@@ -590,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2F14DC-9EA0-9F4C-829E-B310BBF5282B}">
   <dimension ref="A1:I401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="117" workbookViewId="0">
-      <selection activeCell="B400" sqref="B400"/>
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="117" workbookViewId="0">
+      <selection activeCell="C402" sqref="C402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,7 +1033,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
         <v>13</v>
@@ -1035,8 +1058,12 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
@@ -1058,8 +1085,12 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
@@ -1081,8 +1112,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
@@ -1480,8 +1515,12 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D38" s="4" t="s">
         <v>12</v>
       </c>
@@ -1645,8 +1684,12 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D45" s="4" t="s">
         <v>12</v>
       </c>
@@ -1691,8 +1734,12 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D47" s="4" t="s">
         <v>12</v>
       </c>
@@ -1737,8 +1784,12 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D49" s="4" t="s">
         <v>12</v>
       </c>
@@ -1760,8 +1811,12 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D50" s="4" t="s">
         <v>12</v>
       </c>
@@ -1806,8 +1861,12 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D52" s="4" t="s">
         <v>13</v>
       </c>
@@ -1829,8 +1888,12 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D53" s="4" t="s">
         <v>12</v>
       </c>
@@ -1879,8 +1942,12 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D55" s="4" t="s">
         <v>12</v>
       </c>
@@ -1902,8 +1969,12 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D56" s="4" t="s">
         <v>13</v>
       </c>
@@ -1971,8 +2042,12 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D59" s="4" t="s">
         <v>12</v>
       </c>
@@ -1994,8 +2069,12 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D60" s="4" t="s">
         <v>13</v>
       </c>
@@ -2201,8 +2280,12 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D69" s="4" t="s">
         <v>13</v>
       </c>
@@ -2270,8 +2353,12 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="B72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D72" s="4" t="s">
         <v>13</v>
       </c>
@@ -2385,8 +2472,12 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D77" s="4" t="s">
         <v>13</v>
       </c>
@@ -2458,8 +2549,12 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="B80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D80" s="4" t="s">
         <v>12</v>
       </c>
@@ -2562,8 +2657,12 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="B84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D84" s="4" t="s">
         <v>13</v>
       </c>
@@ -2777,8 +2876,12 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="B93" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D93" s="4" t="s">
         <v>13</v>
       </c>
@@ -2827,8 +2930,12 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="B95" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D95" s="4" t="s">
         <v>13</v>
       </c>
@@ -2900,8 +3007,12 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="B98" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D98" s="4" t="s">
         <v>12</v>
       </c>
@@ -3234,8 +3345,12 @@
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
+      <c r="B112" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D112" s="4" t="s">
         <v>13</v>
       </c>
@@ -3514,8 +3629,12 @@
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
+      <c r="B124" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D124" s="4" t="s">
         <v>13</v>
       </c>
@@ -3744,8 +3863,12 @@
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="B134" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D134" s="4" t="s">
         <v>13</v>
       </c>
@@ -4043,8 +4166,12 @@
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
+      <c r="B147" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D147" s="4" t="s">
         <v>13</v>
       </c>
@@ -4319,8 +4446,12 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
+      <c r="B159" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D159" s="4" t="s">
         <v>12</v>
       </c>
@@ -4342,8 +4473,12 @@
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
+      <c r="B160" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D160" s="4" t="s">
         <v>12</v>
       </c>
@@ -4484,8 +4619,12 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
+      <c r="B166" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D166" s="4" t="s">
         <v>12</v>
       </c>
@@ -4787,8 +4926,12 @@
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
+      <c r="B179" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D179" s="4" t="s">
         <v>12</v>
       </c>
@@ -4810,8 +4953,12 @@
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
+      <c r="B180" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D180" s="4" t="s">
         <v>13</v>
       </c>
@@ -4952,8 +5099,12 @@
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
+      <c r="B186" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D186" s="4" t="s">
         <v>12</v>
       </c>
@@ -4975,8 +5126,12 @@
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
+      <c r="B187" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D187" s="4" t="s">
         <v>12</v>
       </c>
@@ -5044,8 +5199,12 @@
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
+      <c r="B190" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D190" s="4" t="s">
         <v>13</v>
       </c>
@@ -5228,8 +5387,12 @@
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
+      <c r="B198" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D198" s="4" t="s">
         <v>12</v>
       </c>
@@ -5370,8 +5533,12 @@
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
+      <c r="B204" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D204" s="4" t="s">
         <v>13</v>
       </c>
@@ -5485,8 +5652,12 @@
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
+      <c r="B209" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D209" s="4" t="s">
         <v>12</v>
       </c>
@@ -5834,8 +6005,12 @@
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
+      <c r="B224" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D224" s="4" t="s">
         <v>12</v>
       </c>
@@ -6271,8 +6446,12 @@
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
-      <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
+      <c r="B243" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D243" s="4" t="s">
         <v>13</v>
       </c>
@@ -6294,8 +6473,12 @@
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
-      <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
+      <c r="B244" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D244" s="4" t="s">
         <v>12</v>
       </c>
@@ -6409,8 +6592,12 @@
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
-      <c r="B249" s="4"/>
-      <c r="C249" s="4"/>
+      <c r="B249" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D249" s="4" t="s">
         <v>13</v>
       </c>
@@ -6432,8 +6619,12 @@
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
-      <c r="B250" s="4"/>
-      <c r="C250" s="4"/>
+      <c r="B250" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D250" s="4" t="s">
         <v>13</v>
       </c>
@@ -6501,8 +6692,12 @@
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="B253" s="4"/>
-      <c r="C253" s="4"/>
+      <c r="B253" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D253" s="4" t="s">
         <v>13</v>
       </c>
@@ -6547,8 +6742,12 @@
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
+      <c r="B255" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D255" s="4" t="s">
         <v>12</v>
       </c>
@@ -6781,8 +6980,12 @@
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
-      <c r="B265" s="4"/>
-      <c r="C265" s="4"/>
+      <c r="B265" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D265" s="4" t="s">
         <v>13</v>
       </c>
@@ -6804,8 +7007,12 @@
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
-      <c r="B266" s="4"/>
-      <c r="C266" s="4"/>
+      <c r="B266" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D266" s="4" t="s">
         <v>13</v>
       </c>
@@ -6877,8 +7084,12 @@
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
-      <c r="B269" s="4"/>
-      <c r="C269" s="4"/>
+      <c r="B269" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D269" s="4" t="s">
         <v>12</v>
       </c>
@@ -6923,8 +7134,12 @@
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
-      <c r="B271" s="4"/>
-      <c r="C271" s="4"/>
+      <c r="B271" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D271" s="4" t="s">
         <v>12</v>
       </c>
@@ -7092,8 +7307,12 @@
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
-      <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
+      <c r="B278" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D278" s="4" t="s">
         <v>13</v>
       </c>
@@ -7449,8 +7668,12 @@
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
+      <c r="B293" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D293" s="4" t="s">
         <v>13</v>
       </c>
@@ -7541,8 +7764,12 @@
         <f t="shared" si="4"/>
         <v>296</v>
       </c>
-      <c r="B297" s="4"/>
-      <c r="C297" s="4"/>
+      <c r="B297" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D297" s="4" t="s">
         <v>12</v>
       </c>
@@ -7564,8 +7791,12 @@
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
-      <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
+      <c r="B298" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D298" s="4" t="s">
         <v>12</v>
       </c>
@@ -7863,8 +8094,12 @@
         <f t="shared" si="4"/>
         <v>310</v>
       </c>
-      <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
+      <c r="B311" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D311" s="4" t="s">
         <v>12</v>
       </c>
@@ -8001,8 +8236,12 @@
         <f t="shared" si="4"/>
         <v>316</v>
       </c>
-      <c r="B317" s="4"/>
-      <c r="C317" s="4"/>
+      <c r="B317" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D317" s="4" t="s">
         <v>13</v>
       </c>
@@ -8070,8 +8309,12 @@
         <f t="shared" si="4"/>
         <v>319</v>
       </c>
-      <c r="B320" s="4"/>
-      <c r="C320" s="4"/>
+      <c r="B320" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D320" s="4" t="s">
         <v>13</v>
       </c>
@@ -8323,8 +8566,12 @@
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
-      <c r="B331" s="4"/>
-      <c r="C331" s="4"/>
+      <c r="B331" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D331" s="4" t="s">
         <v>13</v>
       </c>
@@ -8438,8 +8685,12 @@
         <f t="shared" si="5"/>
         <v>335</v>
       </c>
-      <c r="B336" s="4"/>
-      <c r="C336" s="4"/>
+      <c r="B336" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D336" s="4" t="s">
         <v>13</v>
       </c>
@@ -8553,8 +8804,12 @@
         <f t="shared" si="5"/>
         <v>340</v>
       </c>
-      <c r="B341" s="4"/>
-      <c r="C341" s="4"/>
+      <c r="B341" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D341" s="4" t="s">
         <v>12</v>
       </c>
@@ -8645,8 +8900,12 @@
         <f t="shared" si="5"/>
         <v>344</v>
       </c>
-      <c r="B345" s="4"/>
-      <c r="C345" s="4"/>
+      <c r="B345" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D345" s="4" t="s">
         <v>12</v>
       </c>
@@ -8944,8 +9203,12 @@
         <f t="shared" si="5"/>
         <v>357</v>
       </c>
-      <c r="B358" s="4"/>
-      <c r="C358" s="4"/>
+      <c r="B358" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D358" s="4" t="s">
         <v>13</v>
       </c>
@@ -9105,8 +9368,12 @@
         <f t="shared" si="5"/>
         <v>364</v>
       </c>
-      <c r="B365" s="4"/>
-      <c r="C365" s="4"/>
+      <c r="B365" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D365" s="4" t="s">
         <v>13</v>
       </c>
@@ -9178,8 +9445,12 @@
         <f t="shared" si="5"/>
         <v>367</v>
       </c>
-      <c r="B368" s="4"/>
-      <c r="C368" s="4"/>
+      <c r="B368" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D368" s="4" t="s">
         <v>13</v>
       </c>
@@ -9201,8 +9472,12 @@
         <f t="shared" si="5"/>
         <v>368</v>
       </c>
-      <c r="B369" s="4"/>
-      <c r="C369" s="4"/>
+      <c r="B369" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D369" s="4" t="s">
         <v>12</v>
       </c>
@@ -9362,8 +9637,12 @@
         <f t="shared" si="5"/>
         <v>375</v>
       </c>
-      <c r="B376" s="4"/>
-      <c r="C376" s="4"/>
+      <c r="B376" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D376" s="4" t="s">
         <v>13</v>
       </c>
@@ -9431,8 +9710,12 @@
         <f t="shared" si="5"/>
         <v>378</v>
       </c>
-      <c r="B379" s="4"/>
-      <c r="C379" s="4"/>
+      <c r="B379" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D379" s="4" t="s">
         <v>12</v>
       </c>
@@ -9550,8 +9833,12 @@
         <f t="shared" si="5"/>
         <v>383</v>
       </c>
-      <c r="B384" s="4"/>
-      <c r="C384" s="4"/>
+      <c r="B384" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D384" s="4" t="s">
         <v>12</v>
       </c>
@@ -9903,8 +10190,12 @@
         <f t="shared" si="6"/>
         <v>398</v>
       </c>
-      <c r="B399" s="4"/>
-      <c r="C399" s="4"/>
+      <c r="B399" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C399" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D399" s="4" t="s">
         <v>13</v>
       </c>
@@ -9929,7 +10220,9 @@
       <c r="B400" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C400" s="4"/>
+      <c r="C400" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D400" s="4" t="s">
         <v>13</v>
       </c>
@@ -9951,8 +10244,12 @@
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-      <c r="B401" s="4"/>
-      <c r="C401" s="4"/>
+      <c r="B401" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C401" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D401" s="4" t="s">
         <v>13</v>
       </c>

--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C92B08D-0CED-EC4D-ABE8-696DB6D76F5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568D1EB5-1B05-4B4B-8901-765F2EEC4AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="28460" windowHeight="16640" xr2:uid="{836CA092-02C0-B74E-BDA7-EEABC1742BC7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -160,6 +160,27 @@
   </si>
   <si>
     <t>8.29.21</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>9.8.21</t>
+  </si>
+  <si>
+    <t>9.17.21</t>
+  </si>
+  <si>
+    <t>9.18.21</t>
+  </si>
+  <si>
+    <t>9.21.21</t>
+  </si>
+  <si>
+    <t>9.24.21</t>
+  </si>
+  <si>
+    <t>9.11.21</t>
   </si>
 </sst>
 </file>
@@ -615,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2F14DC-9EA0-9F4C-829E-B310BBF5282B}">
   <dimension ref="A1:I401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B391" sqref="B391"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,7 +708,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
@@ -709,8 +732,12 @@
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
@@ -732,8 +759,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
@@ -755,8 +786,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
@@ -805,8 +840,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
@@ -828,8 +867,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
@@ -851,8 +894,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
@@ -874,8 +921,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
@@ -897,8 +948,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
@@ -921,7 +976,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
@@ -997,8 +1054,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1020,8 +1081,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D17" s="4" t="s">
         <v>11</v>
       </c>

--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568D1EB5-1B05-4B4B-8901-765F2EEC4AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A2C5EB-2B6E-A14A-8827-07B588E8CDE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="28460" windowHeight="16640" xr2:uid="{836CA092-02C0-B74E-BDA7-EEABC1742BC7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -182,6 +182,33 @@
   <si>
     <t>9.11.21</t>
   </si>
+  <si>
+    <t>9.13.21</t>
+  </si>
+  <si>
+    <t>9.22.21</t>
+  </si>
+  <si>
+    <t>9.7.21</t>
+  </si>
+  <si>
+    <t>9.01.21</t>
+  </si>
+  <si>
+    <t>8.30.21</t>
+  </si>
+  <si>
+    <t>9.7.32</t>
+  </si>
+  <si>
+    <t>8.31.21</t>
+  </si>
+  <si>
+    <t>9.7.12</t>
+  </si>
+  <si>
+    <t>9.5.21</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -305,11 +332,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -320,6 +358,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2F14DC-9EA0-9F4C-829E-B310BBF5282B}">
   <dimension ref="A1:I401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A375" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C399" sqref="C399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,8 +1282,12 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
@@ -1266,8 +1309,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
@@ -1289,8 +1336,12 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
@@ -1312,8 +1363,12 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
@@ -1335,8 +1390,12 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1358,8 +1417,12 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D28" s="4" t="s">
         <v>10</v>
       </c>
@@ -1382,7 +1445,9 @@
         <v>28</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
@@ -1404,8 +1469,12 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D30" s="4" t="s">
         <v>11</v>
       </c>
@@ -1454,8 +1523,12 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D32" s="4" t="s">
         <v>10</v>
       </c>
@@ -1478,7 +1551,9 @@
         <v>32</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D33" s="4" t="s">
         <v>11</v>
       </c>
@@ -1500,8 +1575,12 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D34" s="4" t="s">
         <v>11</v>
       </c>
@@ -1523,8 +1602,12 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D35" s="4" t="s">
         <v>10</v>
       </c>
@@ -1546,8 +1629,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D36" s="4" t="s">
         <v>10</v>
       </c>
@@ -1619,8 +1706,12 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D39" s="4" t="s">
         <v>10</v>
       </c>
@@ -1642,8 +1733,12 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D40" s="4" t="s">
         <v>11</v>
       </c>
@@ -1692,8 +1787,12 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D42" s="4" t="s">
         <v>11</v>
       </c>
@@ -1715,8 +1814,12 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D43" s="4" t="s">
         <v>10</v>
       </c>
@@ -1738,8 +1841,12 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D44" s="4" t="s">
         <v>11</v>
       </c>
@@ -1788,8 +1895,12 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
@@ -1919,8 +2030,12 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D51" s="4" t="s">
         <v>10</v>
       </c>
@@ -2078,7 +2193,9 @@
         <v>56</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D57" s="4" t="s">
         <v>10</v>
       </c>
@@ -2100,8 +2217,12 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D58" s="4" t="s">
         <v>11</v>
       </c>
@@ -2177,8 +2298,12 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D61" s="4" t="s">
         <v>11</v>
       </c>
@@ -2200,8 +2325,12 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D62" s="4" t="s">
         <v>11</v>
       </c>
@@ -2223,8 +2352,12 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D63" s="4" t="s">
         <v>11</v>
       </c>
@@ -2246,8 +2379,12 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D64" s="4" t="s">
         <v>10</v>
       </c>
@@ -2296,8 +2433,12 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D66" s="4" t="s">
         <v>11</v>
       </c>
@@ -2319,8 +2460,12 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D67" s="4" t="s">
         <v>10</v>
       </c>
@@ -2342,8 +2487,12 @@
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="B68" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D68" s="4" t="s">
         <v>11</v>
       </c>
@@ -2392,8 +2541,12 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="B70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D70" s="4" t="s">
         <v>10</v>
       </c>
@@ -2415,8 +2568,12 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="B71" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D71" s="4" t="s">
         <v>11</v>
       </c>
@@ -2492,8 +2649,12 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="B74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D74" s="4" t="s">
         <v>11</v>
       </c>
@@ -2515,8 +2676,12 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+      <c r="B75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D75" s="4" t="s">
         <v>11</v>
       </c>
@@ -2538,8 +2703,12 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="B76" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D76" s="4" t="s">
         <v>11</v>
       </c>
@@ -2615,8 +2784,12 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D79" s="4" t="s">
         <v>11</v>
       </c>
@@ -2801,7 +2974,9 @@
         <v>85</v>
       </c>
       <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D86" s="4" t="s">
         <v>10</v>
       </c>
@@ -2905,7 +3080,9 @@
         <v>89</v>
       </c>
       <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+      <c r="C90" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D90" s="4" t="s">
         <v>11</v>
       </c>
@@ -3090,7 +3267,9 @@
         <v>96</v>
       </c>
       <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+      <c r="C97" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D97" s="4" t="s">
         <v>10</v>
       </c>
@@ -3220,8 +3399,12 @@
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
+      <c r="B102" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D102" s="4" t="s">
         <v>10</v>
       </c>
@@ -3243,8 +3426,12 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+      <c r="B103" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D103" s="4" t="s">
         <v>11</v>
       </c>
@@ -3266,8 +3453,12 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+      <c r="B104" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D104" s="4" t="s">
         <v>11</v>
       </c>
@@ -3289,8 +3480,12 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
+      <c r="B105" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D105" s="4" t="s">
         <v>11</v>
       </c>
@@ -3312,8 +3507,12 @@
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="B106" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D106" s="4" t="s">
         <v>10</v>
       </c>
@@ -3335,8 +3534,12 @@
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="B107" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D107" s="4" t="s">
         <v>10</v>
       </c>
@@ -3358,8 +3561,12 @@
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+      <c r="B108" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D108" s="4" t="s">
         <v>10</v>
       </c>
@@ -3381,8 +3588,12 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+      <c r="B109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D109" s="4" t="s">
         <v>10</v>
       </c>
@@ -3404,8 +3615,12 @@
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="B110" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D110" s="4" t="s">
         <v>11</v>
       </c>
@@ -3427,8 +3642,12 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
+      <c r="B111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D111" s="4" t="s">
         <v>11</v>
       </c>
@@ -3477,8 +3696,12 @@
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
+      <c r="B113" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D113" s="4" t="s">
         <v>10</v>
       </c>
@@ -3500,8 +3723,12 @@
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
+      <c r="B114" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D114" s="4" t="s">
         <v>10</v>
       </c>
@@ -3523,8 +3750,12 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
+      <c r="B115" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D115" s="4" t="s">
         <v>11</v>
       </c>
@@ -3574,7 +3805,9 @@
         <v>116</v>
       </c>
       <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
+      <c r="C117" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D117" s="4" t="s">
         <v>10</v>
       </c>
@@ -3596,8 +3829,12 @@
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
+      <c r="B118" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D118" s="4" t="s">
         <v>10</v>
       </c>
@@ -3646,8 +3883,12 @@
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
+      <c r="B120" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D120" s="4" t="s">
         <v>11</v>
       </c>
@@ -3669,8 +3910,12 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
+      <c r="B121" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D121" s="4" t="s">
         <v>10</v>
       </c>
@@ -3692,8 +3937,12 @@
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
+      <c r="B122" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="D122" s="4" t="s">
         <v>10</v>
       </c>
@@ -3769,8 +4018,12 @@
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
+      <c r="B125" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D125" s="4" t="s">
         <v>10</v>
       </c>
@@ -3792,8 +4045,12 @@
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
+      <c r="B126" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D126" s="4" t="s">
         <v>10</v>
       </c>
@@ -3815,8 +4072,12 @@
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
+      <c r="B127" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D127" s="4" t="s">
         <v>10</v>
       </c>
@@ -3838,8 +4099,12 @@
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
+      <c r="B128" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D128" s="4" t="s">
         <v>10</v>
       </c>
@@ -3861,8 +4126,12 @@
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
+      <c r="B129" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D129" s="4" t="s">
         <v>10</v>
       </c>
@@ -3884,8 +4153,12 @@
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
+      <c r="B130" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D130" s="4" t="s">
         <v>11</v>
       </c>
@@ -3907,8 +4180,12 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
+      <c r="B131" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D131" s="4" t="s">
         <v>11</v>
       </c>
@@ -3930,8 +4207,12 @@
         <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>131</v>
       </c>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
+      <c r="B132" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D132" s="4" t="s">
         <v>10</v>
       </c>
@@ -3953,8 +4234,12 @@
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
+      <c r="B133" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D133" s="4" t="s">
         <v>11</v>
       </c>
@@ -4003,8 +4288,12 @@
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
+      <c r="B135" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D135" s="4" t="s">
         <v>10</v>
       </c>
@@ -4026,8 +4315,12 @@
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+      <c r="B136" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D136" s="4" t="s">
         <v>10</v>
       </c>
@@ -4049,8 +4342,12 @@
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
+      <c r="B137" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D137" s="4" t="s">
         <v>11</v>
       </c>
@@ -4072,8 +4369,12 @@
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+      <c r="B138" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D138" s="4" t="s">
         <v>11</v>
       </c>
@@ -4095,8 +4396,12 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
+      <c r="B139" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D139" s="4" t="s">
         <v>10</v>
       </c>
@@ -4118,8 +4423,12 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="B140" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D140" s="4" t="s">
         <v>10</v>
       </c>
@@ -4141,8 +4450,12 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
+      <c r="B141" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D141" s="4" t="s">
         <v>10</v>
       </c>
@@ -4164,8 +4477,12 @@
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+      <c r="B142" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D142" s="4" t="s">
         <v>10</v>
       </c>
@@ -4187,8 +4504,12 @@
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+      <c r="B143" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D143" s="4" t="s">
         <v>10</v>
       </c>
@@ -4211,7 +4532,9 @@
         <v>143</v>
       </c>
       <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+      <c r="C144" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D144" s="4" t="s">
         <v>10</v>
       </c>
@@ -4233,8 +4556,12 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
+      <c r="B145" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D145" s="4" t="s">
         <v>11</v>
       </c>
@@ -4257,7 +4584,9 @@
         <v>145</v>
       </c>
       <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
+      <c r="C146" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D146" s="4" t="s">
         <v>11</v>
       </c>
@@ -4306,8 +4635,12 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
+      <c r="B148" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D148" s="4" t="s">
         <v>11</v>
       </c>
@@ -4329,8 +4662,12 @@
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
+      <c r="B149" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D149" s="4" t="s">
         <v>11</v>
       </c>
@@ -4352,8 +4689,12 @@
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
+      <c r="B150" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D150" s="4" t="s">
         <v>10</v>
       </c>
@@ -4375,8 +4716,12 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
+      <c r="B151" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D151" s="4" t="s">
         <v>10</v>
       </c>
@@ -4398,8 +4743,12 @@
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
+      <c r="B152" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D152" s="4" t="s">
         <v>10</v>
       </c>
@@ -4448,8 +4797,12 @@
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
+      <c r="B154" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D154" s="4" t="s">
         <v>11</v>
       </c>
@@ -4471,8 +4824,12 @@
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
+      <c r="B155" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D155" s="4" t="s">
         <v>10</v>
       </c>
@@ -4494,8 +4851,12 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
+      <c r="B156" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D156" s="4" t="s">
         <v>11</v>
       </c>
@@ -4517,8 +4878,12 @@
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
+      <c r="B157" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D157" s="4" t="s">
         <v>11</v>
       </c>
@@ -4540,8 +4905,12 @@
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
+      <c r="B158" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D158" s="4" t="s">
         <v>10</v>
       </c>
@@ -4617,8 +4986,12 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
+      <c r="B161" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D161" s="4" t="s">
         <v>11</v>
       </c>
@@ -4721,8 +5094,12 @@
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
+      <c r="B165" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D165" s="4" t="s">
         <v>11</v>
       </c>
@@ -4771,8 +5148,12 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
+      <c r="B167" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D167" s="4" t="s">
         <v>11</v>
       </c>
@@ -4822,7 +5203,9 @@
         <v>168</v>
       </c>
       <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
+      <c r="C169" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D169" s="4" t="s">
         <v>10</v>
       </c>
@@ -4844,8 +5227,12 @@
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+      <c r="B170" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D170" s="4" t="s">
         <v>11</v>
       </c>
@@ -4867,8 +5254,12 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
+      <c r="B171" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D171" s="4" t="s">
         <v>10</v>
       </c>
@@ -4890,8 +5281,12 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
+      <c r="B172" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D172" s="4" t="s">
         <v>11</v>
       </c>
@@ -4913,8 +5308,12 @@
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
+      <c r="B173" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D173" s="4" t="s">
         <v>11</v>
       </c>
@@ -4936,8 +5335,12 @@
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
+      <c r="B174" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D174" s="4" t="s">
         <v>10</v>
       </c>
@@ -4986,8 +5389,12 @@
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
+      <c r="B176" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D176" s="4" t="s">
         <v>10</v>
       </c>
@@ -5009,8 +5416,12 @@
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
+      <c r="B177" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D177" s="4" t="s">
         <v>11</v>
       </c>
@@ -5140,8 +5551,12 @@
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
+      <c r="B182" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="D182" s="4" t="s">
         <v>10</v>
       </c>
@@ -5163,8 +5578,12 @@
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
+      <c r="B183" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D183" s="4" t="s">
         <v>11</v>
       </c>
@@ -5186,8 +5605,12 @@
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
+      <c r="B184" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D184" s="4" t="s">
         <v>10</v>
       </c>
@@ -5209,8 +5632,12 @@
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
+      <c r="B185" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D185" s="4" t="s">
         <v>11</v>
       </c>
@@ -5286,8 +5713,12 @@
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
+      <c r="B188" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D188" s="4" t="s">
         <v>11</v>
       </c>
@@ -5309,8 +5740,12 @@
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
+      <c r="B189" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D189" s="4" t="s">
         <v>11</v>
       </c>
@@ -5336,7 +5771,7 @@
         <v>30</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>11</v>
@@ -5359,8 +5794,12 @@
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
+      <c r="B191" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D191" s="4" t="s">
         <v>10</v>
       </c>
@@ -5382,8 +5821,12 @@
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
+      <c r="B192" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D192" s="4" t="s">
         <v>11</v>
       </c>
@@ -5405,8 +5848,12 @@
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
+      <c r="B193" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D193" s="4" t="s">
         <v>10</v>
       </c>
@@ -5428,8 +5875,12 @@
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
+      <c r="B194" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D194" s="4" t="s">
         <v>10</v>
       </c>
@@ -5451,8 +5902,12 @@
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
+      <c r="B195" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D195" s="4" t="s">
         <v>11</v>
       </c>
@@ -5501,8 +5956,12 @@
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
+      <c r="B197" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D197" s="4" t="s">
         <v>10</v>
       </c>
@@ -5552,7 +6011,9 @@
         <v>198</v>
       </c>
       <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
+      <c r="C199" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D199" s="4" t="s">
         <v>11</v>
       </c>
@@ -5601,8 +6062,12 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
+      <c r="B201" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D201" s="4" t="s">
         <v>10</v>
       </c>
@@ -5624,8 +6089,12 @@
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
+      <c r="B202" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D202" s="4" t="s">
         <v>11</v>
       </c>
@@ -5647,8 +6116,12 @@
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
+      <c r="B203" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D203" s="4" t="s">
         <v>11</v>
       </c>
@@ -5697,8 +6170,12 @@
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
+      <c r="B205" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D205" s="4" t="s">
         <v>11</v>
       </c>
@@ -5720,8 +6197,12 @@
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
+      <c r="B206" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D206" s="4" t="s">
         <v>11</v>
       </c>
@@ -5743,8 +6224,12 @@
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
+      <c r="B207" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D207" s="4" t="s">
         <v>11</v>
       </c>
@@ -5766,8 +6251,12 @@
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
+      <c r="B208" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D208" s="4" t="s">
         <v>10</v>
       </c>
@@ -5817,7 +6306,9 @@
         <v>209</v>
       </c>
       <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
+      <c r="C210" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D210" s="4" t="s">
         <v>11</v>
       </c>
@@ -5893,8 +6384,12 @@
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
+      <c r="B213" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D213" s="4" t="s">
         <v>11</v>
       </c>
@@ -5916,8 +6411,12 @@
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
-      <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
+      <c r="B214" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D214" s="4" t="s">
         <v>11</v>
       </c>
@@ -5939,8 +6438,12 @@
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
+      <c r="B215" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D215" s="4" t="s">
         <v>10</v>
       </c>
@@ -5962,8 +6465,12 @@
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
-      <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
+      <c r="B216" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D216" s="4" t="s">
         <v>10</v>
       </c>
@@ -5985,8 +6492,12 @@
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
+      <c r="B217" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D217" s="4" t="s">
         <v>10</v>
       </c>
@@ -6008,8 +6519,12 @@
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
+      <c r="B218" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D218" s="4" t="s">
         <v>10</v>
       </c>
@@ -6031,8 +6546,12 @@
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
-      <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
+      <c r="B219" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D219" s="4" t="s">
         <v>10</v>
       </c>
@@ -6081,8 +6600,12 @@
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
+      <c r="B221" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D221" s="4" t="s">
         <v>10</v>
       </c>
@@ -6104,8 +6627,12 @@
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
+      <c r="B222" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D222" s="4" t="s">
         <v>11</v>
       </c>
@@ -6127,8 +6654,12 @@
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
+      <c r="B223" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D223" s="4" t="s">
         <v>10</v>
       </c>
@@ -6178,7 +6709,9 @@
         <v>224</v>
       </c>
       <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
+      <c r="C225" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D225" s="4" t="s">
         <v>10</v>
       </c>
@@ -6200,8 +6733,12 @@
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
+      <c r="B226" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D226" s="4" t="s">
         <v>11</v>
       </c>
@@ -6223,8 +6760,12 @@
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
+      <c r="B227" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D227" s="4" t="s">
         <v>10</v>
       </c>
@@ -6246,8 +6787,12 @@
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
+      <c r="B228" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D228" s="4" t="s">
         <v>11</v>
       </c>
@@ -6269,8 +6814,12 @@
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
+      <c r="B229" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D229" s="4" t="s">
         <v>10</v>
       </c>
@@ -6292,8 +6841,12 @@
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
+      <c r="B230" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D230" s="4" t="s">
         <v>11</v>
       </c>
@@ -6315,8 +6868,12 @@
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
+      <c r="B231" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D231" s="4" t="s">
         <v>10</v>
       </c>
@@ -6338,8 +6895,12 @@
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
+      <c r="B232" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D232" s="4" t="s">
         <v>11</v>
       </c>
@@ -6361,8 +6922,12 @@
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
+      <c r="B233" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D233" s="4" t="s">
         <v>11</v>
       </c>
@@ -6385,7 +6950,9 @@
         <v>233</v>
       </c>
       <c r="B234" s="4"/>
-      <c r="C234" s="4"/>
+      <c r="C234" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D234" s="4" t="s">
         <v>10</v>
       </c>
@@ -6407,8 +6974,12 @@
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
+      <c r="B235" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D235" s="4" t="s">
         <v>10</v>
       </c>
@@ -6457,8 +7028,12 @@
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
+      <c r="B237" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D237" s="4" t="s">
         <v>10</v>
       </c>
@@ -6480,8 +7055,12 @@
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="B238" s="4"/>
-      <c r="C238" s="4"/>
+      <c r="B238" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D238" s="4" t="s">
         <v>10</v>
       </c>
@@ -6503,8 +7082,12 @@
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="B239" s="4"/>
-      <c r="C239" s="4"/>
+      <c r="B239" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D239" s="4" t="s">
         <v>10</v>
       </c>
@@ -6527,7 +7110,9 @@
         <v>239</v>
       </c>
       <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
+      <c r="C240" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D240" s="4" t="s">
         <v>10</v>
       </c>
@@ -6549,8 +7134,12 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="B241" s="4"/>
-      <c r="C241" s="4"/>
+      <c r="B241" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D241" s="4" t="s">
         <v>10</v>
       </c>
@@ -6572,8 +7161,12 @@
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
-      <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
+      <c r="B242" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D242" s="4" t="s">
         <v>10</v>
       </c>
@@ -6649,8 +7242,12 @@
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
-      <c r="B245" s="4"/>
-      <c r="C245" s="4"/>
+      <c r="B245" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D245" s="4" t="s">
         <v>10</v>
       </c>
@@ -6672,8 +7269,12 @@
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
+      <c r="B246" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D246" s="4" t="s">
         <v>10</v>
       </c>
@@ -6695,8 +7296,12 @@
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
-      <c r="B247" s="4"/>
-      <c r="C247" s="4"/>
+      <c r="B247" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D247" s="4" t="s">
         <v>10</v>
       </c>
@@ -6719,7 +7324,9 @@
         <v>247</v>
       </c>
       <c r="B248" s="4"/>
-      <c r="C248" s="4"/>
+      <c r="C248" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D248" s="4" t="s">
         <v>11</v>
       </c>
@@ -6795,8 +7402,12 @@
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="B251" s="4"/>
-      <c r="C251" s="4"/>
+      <c r="B251" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D251" s="4" t="s">
         <v>10</v>
       </c>
@@ -6818,8 +7429,12 @@
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
+      <c r="B252" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D252" s="4" t="s">
         <v>10</v>
       </c>
@@ -6868,8 +7483,12 @@
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
-      <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
+      <c r="B254" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D254" s="4" t="s">
         <v>10</v>
       </c>
@@ -6918,8 +7537,12 @@
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
+      <c r="B256" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D256" s="4" t="s">
         <v>10</v>
       </c>
@@ -6942,7 +7565,9 @@
         <v>256</v>
       </c>
       <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
+      <c r="C257" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D257" s="4" t="s">
         <v>10</v>
       </c>
@@ -6991,8 +7616,12 @@
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
+      <c r="B259" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D259" s="4" t="s">
         <v>10</v>
       </c>
@@ -7014,8 +7643,12 @@
         <f t="shared" ref="A260:A323" si="4">A259+1</f>
         <v>259</v>
       </c>
-      <c r="B260" s="4"/>
-      <c r="C260" s="4"/>
+      <c r="B260" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D260" s="4" t="s">
         <v>10</v>
       </c>
@@ -7037,8 +7670,12 @@
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
-      <c r="B261" s="4"/>
-      <c r="C261" s="4"/>
+      <c r="B261" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D261" s="4" t="s">
         <v>10</v>
       </c>
@@ -7088,7 +7725,9 @@
         <v>262</v>
       </c>
       <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
+      <c r="C263" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D263" s="4" t="s">
         <v>11</v>
       </c>
@@ -7110,8 +7749,12 @@
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
-      <c r="B264" s="4"/>
-      <c r="C264" s="4"/>
+      <c r="B264" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D264" s="4" t="s">
         <v>11</v>
       </c>
@@ -7214,8 +7857,12 @@
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
-      <c r="B268" s="4"/>
-      <c r="C268" s="4"/>
+      <c r="B268" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D268" s="4" t="s">
         <v>10</v>
       </c>
@@ -7264,8 +7911,12 @@
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
-      <c r="B270" s="4"/>
-      <c r="C270" s="4"/>
+      <c r="B270" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D270" s="4" t="s">
         <v>10</v>
       </c>
@@ -7395,8 +8046,12 @@
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
-      <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
+      <c r="B275" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D275" s="4" t="s">
         <v>10</v>
       </c>
@@ -7418,8 +8073,12 @@
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
-      <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
+      <c r="B276" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D276" s="4" t="s">
         <v>10</v>
       </c>
@@ -7495,8 +8154,12 @@
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
-      <c r="B279" s="4"/>
-      <c r="C279" s="4"/>
+      <c r="B279" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D279" s="4" t="s">
         <v>10</v>
       </c>
@@ -7545,8 +8208,12 @@
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="B281" s="4"/>
-      <c r="C281" s="4"/>
+      <c r="B281" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D281" s="4" t="s">
         <v>10</v>
       </c>
@@ -7568,8 +8235,12 @@
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
-      <c r="B282" s="4"/>
-      <c r="C282" s="4"/>
+      <c r="B282" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D282" s="4" t="s">
         <v>10</v>
       </c>
@@ -7618,8 +8289,12 @@
         <f t="shared" si="4"/>
         <v>283</v>
       </c>
-      <c r="B284" s="4"/>
-      <c r="C284" s="4"/>
+      <c r="B284" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D284" s="4" t="s">
         <v>11</v>
       </c>
@@ -7641,8 +8316,12 @@
         <f t="shared" si="4"/>
         <v>284</v>
       </c>
-      <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
+      <c r="B285" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D285" s="4" t="s">
         <v>10</v>
       </c>
@@ -7664,8 +8343,12 @@
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
-      <c r="B286" s="4"/>
-      <c r="C286" s="4"/>
+      <c r="B286" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D286" s="4" t="s">
         <v>10</v>
       </c>
@@ -7687,8 +8370,12 @@
         <f t="shared" si="4"/>
         <v>286</v>
       </c>
-      <c r="B287" s="4"/>
-      <c r="C287" s="4"/>
+      <c r="B287" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D287" s="4" t="s">
         <v>10</v>
       </c>
@@ -7710,8 +8397,12 @@
         <f t="shared" si="4"/>
         <v>287</v>
       </c>
-      <c r="B288" s="4"/>
-      <c r="C288" s="4"/>
+      <c r="B288" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D288" s="4" t="s">
         <v>10</v>
       </c>
@@ -7733,8 +8424,12 @@
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
-      <c r="B289" s="4"/>
-      <c r="C289" s="4"/>
+      <c r="B289" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D289" s="4" t="s">
         <v>10</v>
       </c>
@@ -7783,8 +8478,12 @@
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
-      <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
+      <c r="B291" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D291" s="4" t="s">
         <v>10</v>
       </c>
@@ -7887,8 +8586,12 @@
         <f t="shared" si="4"/>
         <v>294</v>
       </c>
-      <c r="B295" s="4"/>
-      <c r="C295" s="4"/>
+      <c r="B295" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D295" s="4" t="s">
         <v>10</v>
       </c>
@@ -7910,8 +8613,12 @@
         <f t="shared" si="4"/>
         <v>295</v>
       </c>
-      <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
+      <c r="B296" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D296" s="4" t="s">
         <v>10</v>
       </c>
@@ -7987,8 +8694,12 @@
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
+      <c r="B299" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="D299" s="4" t="s">
         <v>11</v>
       </c>
@@ -8010,8 +8721,12 @@
         <f t="shared" si="4"/>
         <v>299</v>
       </c>
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
+      <c r="B300" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D300" s="4" t="s">
         <v>11</v>
       </c>
@@ -8033,8 +8748,12 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
+      <c r="B301" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D301" s="4" t="s">
         <v>11</v>
       </c>
@@ -8056,8 +8775,12 @@
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
-      <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
+      <c r="B302" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D302" s="4" t="s">
         <v>10</v>
       </c>
@@ -8079,8 +8802,12 @@
         <f t="shared" si="4"/>
         <v>302</v>
       </c>
-      <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
+      <c r="B303" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D303" s="4" t="s">
         <v>10</v>
       </c>
@@ -8102,8 +8829,12 @@
         <f t="shared" si="4"/>
         <v>303</v>
       </c>
-      <c r="B304" s="4"/>
-      <c r="C304" s="4"/>
+      <c r="B304" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D304" s="4" t="s">
         <v>10</v>
       </c>
@@ -8125,8 +8856,12 @@
         <f t="shared" si="4"/>
         <v>304</v>
       </c>
-      <c r="B305" s="4"/>
-      <c r="C305" s="4"/>
+      <c r="B305" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D305" s="4" t="s">
         <v>10</v>
       </c>
@@ -8148,8 +8883,12 @@
         <f t="shared" si="4"/>
         <v>305</v>
       </c>
-      <c r="B306" s="4"/>
-      <c r="C306" s="4"/>
+      <c r="B306" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D306" s="4" t="s">
         <v>10</v>
       </c>
@@ -8171,8 +8910,12 @@
         <f t="shared" si="4"/>
         <v>306</v>
       </c>
-      <c r="B307" s="4"/>
-      <c r="C307" s="4"/>
+      <c r="B307" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D307" s="4" t="s">
         <v>10</v>
       </c>
@@ -8194,8 +8937,12 @@
         <f t="shared" si="4"/>
         <v>307</v>
       </c>
-      <c r="B308" s="4"/>
-      <c r="C308" s="4"/>
+      <c r="B308" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D308" s="4" t="s">
         <v>10</v>
       </c>
@@ -8217,8 +8964,12 @@
         <f t="shared" si="4"/>
         <v>308</v>
       </c>
-      <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
+      <c r="B309" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D309" s="4" t="s">
         <v>10</v>
       </c>
@@ -8240,8 +8991,12 @@
         <f t="shared" si="4"/>
         <v>309</v>
       </c>
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
+      <c r="B310" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D310" s="4" t="s">
         <v>10</v>
       </c>
@@ -8290,8 +9045,12 @@
         <f t="shared" si="4"/>
         <v>311</v>
       </c>
-      <c r="B312" s="4"/>
-      <c r="C312" s="4"/>
+      <c r="B312" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D312" s="4" t="s">
         <v>10</v>
       </c>
@@ -8340,8 +9099,12 @@
         <f t="shared" si="4"/>
         <v>313</v>
       </c>
-      <c r="B314" s="4"/>
-      <c r="C314" s="4"/>
+      <c r="B314" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D314" s="4" t="s">
         <v>10</v>
       </c>
@@ -8364,7 +9127,9 @@
         <v>314</v>
       </c>
       <c r="B315" s="4"/>
-      <c r="C315" s="4"/>
+      <c r="C315" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D315" s="4" t="s">
         <v>10</v>
       </c>
@@ -8386,8 +9151,12 @@
         <f t="shared" si="4"/>
         <v>315</v>
       </c>
-      <c r="B316" s="4"/>
-      <c r="C316" s="4"/>
+      <c r="B316" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D316" s="4" t="s">
         <v>10</v>
       </c>
@@ -8436,8 +9205,12 @@
         <f t="shared" si="4"/>
         <v>317</v>
       </c>
-      <c r="B318" s="4"/>
-      <c r="C318" s="4"/>
+      <c r="B318" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D318" s="4" t="s">
         <v>11</v>
       </c>
@@ -8459,8 +9232,12 @@
         <f t="shared" si="4"/>
         <v>318</v>
       </c>
-      <c r="B319" s="4"/>
-      <c r="C319" s="4"/>
+      <c r="B319" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D319" s="4" t="s">
         <v>11</v>
       </c>
@@ -8509,8 +9286,12 @@
         <f t="shared" si="4"/>
         <v>320</v>
       </c>
-      <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
+      <c r="B321" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D321" s="4" t="s">
         <v>10</v>
       </c>
@@ -8559,8 +9340,12 @@
         <f t="shared" si="4"/>
         <v>322</v>
       </c>
-      <c r="B323" s="4"/>
-      <c r="C323" s="4"/>
+      <c r="B323" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D323" s="4" t="s">
         <v>10</v>
       </c>
@@ -8582,8 +9367,12 @@
         <f t="shared" ref="A324:A387" si="5">A323+1</f>
         <v>323</v>
       </c>
-      <c r="B324" s="4"/>
-      <c r="C324" s="4"/>
+      <c r="B324" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D324" s="4" t="s">
         <v>10</v>
       </c>
@@ -8605,8 +9394,12 @@
         <f t="shared" si="5"/>
         <v>324</v>
       </c>
-      <c r="B325" s="4"/>
-      <c r="C325" s="4"/>
+      <c r="B325" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D325" s="4" t="s">
         <v>10</v>
       </c>
@@ -8628,8 +9421,12 @@
         <f t="shared" si="5"/>
         <v>325</v>
       </c>
-      <c r="B326" s="4"/>
-      <c r="C326" s="4"/>
+      <c r="B326" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D326" s="4" t="s">
         <v>10</v>
       </c>
@@ -8651,8 +9448,12 @@
         <f t="shared" si="5"/>
         <v>326</v>
       </c>
-      <c r="B327" s="4"/>
-      <c r="C327" s="4"/>
+      <c r="B327" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D327" s="4" t="s">
         <v>10</v>
       </c>
@@ -8674,8 +9475,12 @@
         <f t="shared" si="5"/>
         <v>327</v>
       </c>
-      <c r="B328" s="4"/>
-      <c r="C328" s="4"/>
+      <c r="B328" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D328" s="4" t="s">
         <v>10</v>
       </c>
@@ -8697,8 +9502,12 @@
         <f t="shared" si="5"/>
         <v>328</v>
       </c>
-      <c r="B329" s="4"/>
-      <c r="C329" s="4"/>
+      <c r="B329" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D329" s="4" t="s">
         <v>11</v>
       </c>
@@ -8720,8 +9529,12 @@
         <f t="shared" si="5"/>
         <v>329</v>
       </c>
-      <c r="B330" s="4"/>
-      <c r="C330" s="4"/>
+      <c r="B330" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D330" s="4" t="s">
         <v>11</v>
       </c>
@@ -8770,8 +9583,12 @@
         <f t="shared" si="5"/>
         <v>331</v>
       </c>
-      <c r="B332" s="4"/>
-      <c r="C332" s="4"/>
+      <c r="B332" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D332" s="4" t="s">
         <v>10</v>
       </c>
@@ -8793,8 +9610,12 @@
         <f t="shared" si="5"/>
         <v>332</v>
       </c>
-      <c r="B333" s="4"/>
-      <c r="C333" s="4"/>
+      <c r="B333" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D333" s="4" t="s">
         <v>10</v>
       </c>
@@ -8816,8 +9637,12 @@
         <f t="shared" si="5"/>
         <v>333</v>
       </c>
-      <c r="B334" s="4"/>
-      <c r="C334" s="4"/>
+      <c r="B334" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D334" s="4" t="s">
         <v>10</v>
       </c>
@@ -8893,8 +9718,12 @@
         <f t="shared" si="5"/>
         <v>336</v>
       </c>
-      <c r="B337" s="4"/>
-      <c r="C337" s="4"/>
+      <c r="B337" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D337" s="4" t="s">
         <v>10</v>
       </c>
@@ -8916,8 +9745,12 @@
         <f t="shared" si="5"/>
         <v>337</v>
       </c>
-      <c r="B338" s="4"/>
-      <c r="C338" s="4"/>
+      <c r="B338" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D338" s="4" t="s">
         <v>10</v>
       </c>
@@ -8939,8 +9772,12 @@
         <f t="shared" si="5"/>
         <v>338</v>
       </c>
-      <c r="B339" s="4"/>
-      <c r="C339" s="4"/>
+      <c r="B339" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D339" s="4" t="s">
         <v>11</v>
       </c>
@@ -8962,8 +9799,12 @@
         <f t="shared" si="5"/>
         <v>339</v>
       </c>
-      <c r="B340" s="4"/>
-      <c r="C340" s="4"/>
+      <c r="B340" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D340" s="4" t="s">
         <v>11</v>
       </c>
@@ -9012,8 +9853,12 @@
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
-      <c r="B342" s="4"/>
-      <c r="C342" s="4"/>
+      <c r="B342" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D342" s="4" t="s">
         <v>10</v>
       </c>
@@ -9035,8 +9880,12 @@
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
-      <c r="B343" s="4"/>
-      <c r="C343" s="4"/>
+      <c r="B343" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D343" s="4" t="s">
         <v>10</v>
       </c>
@@ -9058,8 +9907,12 @@
         <f t="shared" si="5"/>
         <v>343</v>
       </c>
-      <c r="B344" s="4"/>
-      <c r="C344" s="4"/>
+      <c r="B344" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D344" s="4" t="s">
         <v>10</v>
       </c>
@@ -9135,8 +9988,12 @@
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
-      <c r="B347" s="4"/>
-      <c r="C347" s="4"/>
+      <c r="B347" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D347" s="4" t="s">
         <v>10</v>
       </c>
@@ -9159,7 +10016,9 @@
         <v>347</v>
       </c>
       <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
+      <c r="C348" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D348" s="4" t="s">
         <v>10</v>
       </c>
@@ -9181,8 +10040,12 @@
         <f t="shared" si="5"/>
         <v>348</v>
       </c>
-      <c r="B349" s="4"/>
-      <c r="C349" s="4"/>
+      <c r="B349" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D349" s="4" t="s">
         <v>11</v>
       </c>
@@ -9204,8 +10067,12 @@
         <f t="shared" si="5"/>
         <v>349</v>
       </c>
-      <c r="B350" s="4"/>
-      <c r="C350" s="4"/>
+      <c r="B350" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D350" s="4" t="s">
         <v>11</v>
       </c>
@@ -9227,8 +10094,12 @@
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="B351" s="4"/>
-      <c r="C351" s="4"/>
+      <c r="B351" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D351" s="4" t="s">
         <v>11</v>
       </c>
@@ -9250,8 +10121,12 @@
         <f t="shared" si="5"/>
         <v>351</v>
       </c>
-      <c r="B352" s="4"/>
-      <c r="C352" s="4"/>
+      <c r="B352" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D352" s="4" t="s">
         <v>10</v>
       </c>
@@ -9273,8 +10148,12 @@
         <f t="shared" si="5"/>
         <v>352</v>
       </c>
-      <c r="B353" s="4"/>
-      <c r="C353" s="4"/>
+      <c r="B353" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D353" s="4" t="s">
         <v>10</v>
       </c>
@@ -9296,8 +10175,12 @@
         <f t="shared" si="5"/>
         <v>353</v>
       </c>
-      <c r="B354" s="4"/>
-      <c r="C354" s="4"/>
+      <c r="B354" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D354" s="4" t="s">
         <v>10</v>
       </c>
@@ -9319,8 +10202,12 @@
         <f t="shared" si="5"/>
         <v>354</v>
       </c>
-      <c r="B355" s="4"/>
-      <c r="C355" s="4"/>
+      <c r="B355" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D355" s="4" t="s">
         <v>10</v>
       </c>
@@ -9342,8 +10229,12 @@
         <f t="shared" si="5"/>
         <v>355</v>
       </c>
-      <c r="B356" s="4"/>
-      <c r="C356" s="4"/>
+      <c r="B356" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D356" s="4" t="s">
         <v>11</v>
       </c>
@@ -9365,8 +10256,12 @@
         <f t="shared" si="5"/>
         <v>356</v>
       </c>
-      <c r="B357" s="4"/>
-      <c r="C357" s="4"/>
+      <c r="B357" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D357" s="4" t="s">
         <v>11</v>
       </c>
@@ -9416,7 +10311,9 @@
         <v>358</v>
       </c>
       <c r="B359" s="4"/>
-      <c r="C359" s="4"/>
+      <c r="C359" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D359" s="4" t="s">
         <v>11</v>
       </c>
@@ -9439,7 +10336,9 @@
         <v>359</v>
       </c>
       <c r="B360" s="4"/>
-      <c r="C360" s="4"/>
+      <c r="C360" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D360" s="4" t="s">
         <v>10</v>
       </c>
@@ -9461,8 +10360,12 @@
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="B361" s="4"/>
-      <c r="C361" s="4"/>
+      <c r="B361" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D361" s="4" t="s">
         <v>10</v>
       </c>
@@ -9484,8 +10387,12 @@
         <f t="shared" si="5"/>
         <v>361</v>
       </c>
-      <c r="B362" s="4"/>
-      <c r="C362" s="4"/>
+      <c r="B362" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D362" s="4" t="s">
         <v>10</v>
       </c>
@@ -9507,8 +10414,12 @@
         <f t="shared" si="5"/>
         <v>362</v>
       </c>
-      <c r="B363" s="4"/>
-      <c r="C363" s="4"/>
+      <c r="B363" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D363" s="4" t="s">
         <v>10</v>
       </c>
@@ -9530,8 +10441,12 @@
         <f t="shared" si="5"/>
         <v>363</v>
       </c>
-      <c r="B364" s="4"/>
-      <c r="C364" s="4"/>
+      <c r="B364" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D364" s="4" t="s">
         <v>11</v>
       </c>
@@ -9688,8 +10603,12 @@
         <f t="shared" si="5"/>
         <v>369</v>
       </c>
-      <c r="B370" s="4"/>
-      <c r="C370" s="4"/>
+      <c r="B370" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D370" s="4" t="s">
         <v>10</v>
       </c>
@@ -9711,8 +10630,12 @@
         <f t="shared" si="5"/>
         <v>370</v>
       </c>
-      <c r="B371" s="4"/>
-      <c r="C371" s="4"/>
+      <c r="B371" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D371" s="4" t="s">
         <v>10</v>
       </c>
@@ -9734,8 +10657,12 @@
         <f t="shared" si="5"/>
         <v>371</v>
       </c>
-      <c r="B372" s="4"/>
-      <c r="C372" s="4"/>
+      <c r="B372" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D372" s="4" t="s">
         <v>10</v>
       </c>
@@ -9757,8 +10684,12 @@
         <f t="shared" si="5"/>
         <v>372</v>
       </c>
-      <c r="B373" s="4"/>
-      <c r="C373" s="4"/>
+      <c r="B373" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D373" s="4" t="s">
         <v>10</v>
       </c>
@@ -9780,8 +10711,12 @@
         <f t="shared" si="5"/>
         <v>373</v>
       </c>
-      <c r="B374" s="4"/>
-      <c r="C374" s="4"/>
+      <c r="B374" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D374" s="4" t="s">
         <v>10</v>
       </c>
@@ -9803,8 +10738,12 @@
         <f t="shared" si="5"/>
         <v>374</v>
       </c>
-      <c r="B375" s="4"/>
-      <c r="C375" s="4"/>
+      <c r="B375" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D375" s="4" t="s">
         <v>10</v>
       </c>
@@ -9853,8 +10792,12 @@
         <f t="shared" si="5"/>
         <v>376</v>
       </c>
-      <c r="B377" s="4"/>
-      <c r="C377" s="4"/>
+      <c r="B377" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D377" s="4" t="s">
         <v>10</v>
       </c>
@@ -9876,8 +10819,12 @@
         <f t="shared" si="5"/>
         <v>377</v>
       </c>
-      <c r="B378" s="4"/>
-      <c r="C378" s="4"/>
+      <c r="B378" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D378" s="4" t="s">
         <v>10</v>
       </c>
@@ -9953,8 +10900,12 @@
         <f t="shared" si="5"/>
         <v>380</v>
       </c>
-      <c r="B381" s="4"/>
-      <c r="C381" s="4"/>
+      <c r="B381" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D381" s="4" t="s">
         <v>10</v>
       </c>
@@ -9976,8 +10927,12 @@
         <f t="shared" si="5"/>
         <v>381</v>
       </c>
-      <c r="B382" s="4"/>
-      <c r="C382" s="4"/>
+      <c r="B382" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D382" s="4" t="s">
         <v>10</v>
       </c>
@@ -10080,8 +11035,12 @@
         <f t="shared" si="5"/>
         <v>385</v>
       </c>
-      <c r="B386" s="4"/>
-      <c r="C386" s="4"/>
+      <c r="B386" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D386" s="4" t="s">
         <v>10</v>
       </c>
@@ -10130,8 +11089,12 @@
         <f t="shared" ref="A388:A401" si="6">A387+1</f>
         <v>387</v>
       </c>
-      <c r="B388" s="4"/>
-      <c r="C388" s="4"/>
+      <c r="B388" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D388" s="4" t="s">
         <v>11</v>
       </c>
@@ -10153,8 +11116,12 @@
         <f t="shared" si="6"/>
         <v>388</v>
       </c>
-      <c r="B389" s="4"/>
-      <c r="C389" s="4"/>
+      <c r="B389" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D389" s="4" t="s">
         <v>11</v>
       </c>
@@ -10176,8 +11143,12 @@
         <f t="shared" si="6"/>
         <v>389</v>
       </c>
-      <c r="B390" s="4"/>
-      <c r="C390" s="4"/>
+      <c r="B390" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D390" s="4" t="s">
         <v>11</v>
       </c>
@@ -10226,8 +11197,12 @@
         <f t="shared" si="6"/>
         <v>391</v>
       </c>
-      <c r="B392" s="4"/>
-      <c r="C392" s="4"/>
+      <c r="B392" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D392" s="4" t="s">
         <v>11</v>
       </c>
@@ -10249,8 +11224,12 @@
         <f t="shared" si="6"/>
         <v>392</v>
       </c>
-      <c r="B393" s="4"/>
-      <c r="C393" s="4"/>
+      <c r="B393" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D393" s="4" t="s">
         <v>10</v>
       </c>
@@ -10273,7 +11252,9 @@
         <v>393</v>
       </c>
       <c r="B394" s="4"/>
-      <c r="C394" s="4"/>
+      <c r="C394" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D394" s="4" t="s">
         <v>10</v>
       </c>
@@ -10295,8 +11276,12 @@
         <f t="shared" si="6"/>
         <v>394</v>
       </c>
-      <c r="B395" s="4"/>
-      <c r="C395" s="4"/>
+      <c r="B395" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D395" s="4" t="s">
         <v>10</v>
       </c>
@@ -10318,8 +11303,12 @@
         <f t="shared" si="6"/>
         <v>395</v>
       </c>
-      <c r="B396" s="4"/>
-      <c r="C396" s="4"/>
+      <c r="B396" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D396" s="4" t="s">
         <v>10</v>
       </c>
@@ -10341,8 +11330,12 @@
         <f t="shared" si="6"/>
         <v>396</v>
       </c>
-      <c r="B397" s="4"/>
-      <c r="C397" s="4"/>
+      <c r="B397" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D397" s="4" t="s">
         <v>10</v>
       </c>
@@ -10364,8 +11357,12 @@
         <f t="shared" si="6"/>
         <v>397</v>
       </c>
-      <c r="B398" s="4"/>
-      <c r="C398" s="4"/>
+      <c r="B398" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D398" s="4" t="s">
         <v>10</v>
       </c>

--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/masterlist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A2C5EB-2B6E-A14A-8827-07B588E8CDE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBA507C-D324-F84C-AC4B-FEFF3F124114}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28460" windowHeight="16640" xr2:uid="{836CA092-02C0-B74E-BDA7-EEABC1742BC7}"/>
+    <workbookView xWindow="260" yWindow="1280" windowWidth="28460" windowHeight="16640" xr2:uid="{836CA092-02C0-B74E-BDA7-EEABC1742BC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="masterlist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -171,9 +171,6 @@
     <t>9.17.21</t>
   </si>
   <si>
-    <t>9.18.21</t>
-  </si>
-  <si>
     <t>9.21.21</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>9.5.21</t>
+  </si>
+  <si>
+    <t>9.16.21</t>
   </si>
 </sst>
 </file>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2F14DC-9EA0-9F4C-829E-B310BBF5282B}">
   <dimension ref="A1:I401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C399" sqref="C399"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B360" sqref="B360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,7 +802,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -964,7 +964,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
@@ -991,7 +991,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
@@ -1097,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
@@ -1124,7 +1124,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>11</v>
@@ -1286,7 +1286,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>11</v>
@@ -1313,7 +1313,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>10</v>
@@ -1340,7 +1340,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
@@ -1367,7 +1367,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>11</v>
@@ -1421,7 +1421,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>10</v>
@@ -1444,9 +1444,11 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C29" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>11</v>
@@ -1473,7 +1475,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>11</v>
@@ -1527,7 +1529,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>10</v>
@@ -1579,7 +1581,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>11</v>
@@ -1606,7 +1608,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>10</v>
@@ -1633,7 +1635,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>10</v>
@@ -1737,7 +1739,7 @@
         <v>30</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>11</v>
@@ -1791,7 +1793,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>11</v>
@@ -1818,7 +1820,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>10</v>
@@ -1845,7 +1847,7 @@
         <v>30</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>11</v>
@@ -2034,7 +2036,7 @@
         <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>10</v>
@@ -2192,9 +2194,11 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C57" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>10</v>
@@ -2221,7 +2225,7 @@
         <v>30</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>11</v>
@@ -2329,7 +2333,7 @@
         <v>30</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>11</v>
@@ -2356,7 +2360,7 @@
         <v>30</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>11</v>
@@ -2383,7 +2387,7 @@
         <v>30</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>10</v>
@@ -2437,7 +2441,7 @@
         <v>30</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>11</v>
@@ -2464,7 +2468,7 @@
         <v>30</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>10</v>
@@ -2491,7 +2495,7 @@
         <v>30</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>11</v>
@@ -2572,7 +2576,7 @@
         <v>30</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>11</v>
@@ -2653,7 +2657,7 @@
         <v>30</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>11</v>
@@ -2680,7 +2684,7 @@
         <v>30</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>11</v>
@@ -2707,7 +2711,7 @@
         <v>30</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>11</v>
@@ -2973,9 +2977,11 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C86" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>10</v>
@@ -3081,7 +3087,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>11</v>
@@ -3403,7 +3409,7 @@
         <v>30</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>10</v>
@@ -3457,7 +3463,7 @@
         <v>30</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>11</v>
@@ -3484,7 +3490,7 @@
         <v>30</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>11</v>
@@ -3511,7 +3517,7 @@
         <v>30</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>10</v>
@@ -3592,7 +3598,7 @@
         <v>30</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>10</v>
@@ -3619,7 +3625,7 @@
         <v>30</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>11</v>
@@ -3646,7 +3652,7 @@
         <v>30</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>11</v>
@@ -3700,7 +3706,7 @@
         <v>30</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>10</v>
@@ -3754,7 +3760,7 @@
         <v>30</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>11</v>
@@ -3833,7 +3839,7 @@
         <v>30</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>10</v>
@@ -3887,7 +3893,7 @@
         <v>30</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>11</v>
@@ -3914,7 +3920,7 @@
         <v>30</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>10</v>
@@ -3941,7 +3947,7 @@
         <v>30</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>10</v>
@@ -4103,7 +4109,7 @@
         <v>30</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>10</v>
@@ -4157,7 +4163,7 @@
         <v>30</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>11</v>
@@ -4211,7 +4217,7 @@
         <v>30</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>10</v>
@@ -4238,7 +4244,7 @@
         <v>30</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>11</v>
@@ -4319,7 +4325,7 @@
         <v>30</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>10</v>
@@ -4373,7 +4379,7 @@
         <v>30</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>11</v>
@@ -4400,7 +4406,7 @@
         <v>30</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>10</v>
@@ -4427,7 +4433,7 @@
         <v>30</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>10</v>
@@ -4508,7 +4514,7 @@
         <v>30</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>10</v>
@@ -4560,7 +4566,7 @@
         <v>30</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>11</v>
@@ -4666,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>11</v>
@@ -4720,7 +4726,7 @@
         <v>30</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>10</v>
@@ -4855,7 +4861,7 @@
         <v>30</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>11</v>
@@ -4882,7 +4888,7 @@
         <v>30</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>11</v>
@@ -4909,7 +4915,7 @@
         <v>30</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>10</v>
@@ -4990,7 +4996,7 @@
         <v>30</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>11</v>
@@ -5098,7 +5104,7 @@
         <v>30</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>11</v>
@@ -5152,7 +5158,7 @@
         <v>30</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>11</v>
@@ -5231,7 +5237,7 @@
         <v>30</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>11</v>
@@ -5285,7 +5291,7 @@
         <v>30</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>11</v>
@@ -5312,7 +5318,7 @@
         <v>30</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>11</v>
@@ -5339,7 +5345,7 @@
         <v>30</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>10</v>
@@ -5393,7 +5399,7 @@
         <v>30</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>10</v>
@@ -5420,7 +5426,7 @@
         <v>30</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>11</v>
@@ -5582,7 +5588,7 @@
         <v>30</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>11</v>
@@ -5717,7 +5723,7 @@
         <v>30</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>11</v>
@@ -5744,7 +5750,7 @@
         <v>30</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>11</v>
@@ -5825,7 +5831,7 @@
         <v>30</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>11</v>
@@ -5852,7 +5858,7 @@
         <v>30</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>10</v>
@@ -5960,7 +5966,7 @@
         <v>30</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>10</v>
@@ -6066,7 +6072,7 @@
         <v>30</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>10</v>
@@ -6093,7 +6099,7 @@
         <v>30</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>11</v>
@@ -6120,7 +6126,7 @@
         <v>30</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>11</v>
@@ -6388,7 +6394,7 @@
         <v>30</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>11</v>
@@ -6415,7 +6421,7 @@
         <v>30</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>11</v>
@@ -6442,7 +6448,7 @@
         <v>30</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>10</v>
@@ -6496,7 +6502,7 @@
         <v>30</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>10</v>
@@ -6523,7 +6529,7 @@
         <v>30</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>10</v>
@@ -6550,7 +6556,7 @@
         <v>30</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>10</v>
@@ -6631,7 +6637,7 @@
         <v>30</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>11</v>
@@ -6658,7 +6664,7 @@
         <v>30</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>10</v>
@@ -6708,9 +6714,11 @@
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="B225" s="4"/>
-      <c r="C225" s="4" t="s">
-        <v>45</v>
+      <c r="B225" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>10</v>
@@ -6737,7 +6745,7 @@
         <v>30</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>11</v>
@@ -6845,7 +6853,7 @@
         <v>30</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>11</v>
@@ -6872,7 +6880,7 @@
         <v>30</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>10</v>
@@ -6899,7 +6907,7 @@
         <v>30</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>11</v>
@@ -6926,7 +6934,7 @@
         <v>30</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>11</v>
@@ -6949,9 +6957,11 @@
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
-      <c r="B234" s="4"/>
-      <c r="C234" s="4" t="s">
-        <v>45</v>
+      <c r="B234" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>10</v>
@@ -7032,7 +7042,7 @@
         <v>30</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>10</v>
@@ -7059,7 +7069,7 @@
         <v>30</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>10</v>
@@ -7086,7 +7096,7 @@
         <v>30</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>10</v>
@@ -7109,9 +7119,11 @@
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
-      <c r="B240" s="4"/>
-      <c r="C240" s="4" t="s">
-        <v>45</v>
+      <c r="B240" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>10</v>
@@ -7138,7 +7150,7 @@
         <v>30</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>10</v>
@@ -7165,7 +7177,7 @@
         <v>30</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>10</v>
@@ -7246,7 +7258,7 @@
         <v>30</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>10</v>
@@ -7273,7 +7285,7 @@
         <v>30</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>10</v>
@@ -7300,7 +7312,7 @@
         <v>30</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>10</v>
@@ -7323,9 +7335,11 @@
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
-      <c r="B248" s="4"/>
-      <c r="C248" s="4" t="s">
-        <v>45</v>
+      <c r="B248" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>11</v>
@@ -7406,7 +7420,7 @@
         <v>30</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>10</v>
@@ -7433,7 +7447,7 @@
         <v>30</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>10</v>
@@ -7487,7 +7501,7 @@
         <v>30</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>10</v>
@@ -7541,7 +7555,7 @@
         <v>30</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>10</v>
@@ -7620,7 +7634,7 @@
         <v>30</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>10</v>
@@ -7647,7 +7661,7 @@
         <v>30</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>10</v>
@@ -7674,7 +7688,7 @@
         <v>30</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>10</v>
@@ -7724,9 +7738,11 @@
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
-      <c r="B263" s="4"/>
-      <c r="C263" s="4" t="s">
-        <v>45</v>
+      <c r="B263" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>11</v>
@@ -7753,7 +7769,7 @@
         <v>30</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>11</v>
@@ -7861,7 +7877,7 @@
         <v>30</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>10</v>
@@ -7915,7 +7931,7 @@
         <v>30</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>10</v>
@@ -8050,7 +8066,7 @@
         <v>30</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>10</v>
@@ -8077,7 +8093,7 @@
         <v>30</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>10</v>
@@ -8158,7 +8174,7 @@
         <v>30</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>10</v>
@@ -8212,7 +8228,7 @@
         <v>30</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>10</v>
@@ -8239,7 +8255,7 @@
         <v>30</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>10</v>
@@ -8293,7 +8309,7 @@
         <v>30</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>11</v>
@@ -8374,7 +8390,7 @@
         <v>30</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>10</v>
@@ -8401,7 +8417,7 @@
         <v>30</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>10</v>
@@ -8428,7 +8444,7 @@
         <v>30</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>10</v>
@@ -8482,7 +8498,7 @@
         <v>30</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>10</v>
@@ -8590,7 +8606,7 @@
         <v>30</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D295" s="4" t="s">
         <v>10</v>
@@ -8698,7 +8714,7 @@
         <v>30</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>11</v>
@@ -8725,7 +8741,7 @@
         <v>30</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>11</v>
@@ -8752,7 +8768,7 @@
         <v>30</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>11</v>
@@ -8779,7 +8795,7 @@
         <v>30</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>10</v>
@@ -8806,7 +8822,7 @@
         <v>30</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>10</v>
@@ -8833,7 +8849,7 @@
         <v>30</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>10</v>
@@ -8887,7 +8903,7 @@
         <v>30</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>10</v>
@@ -8914,7 +8930,7 @@
         <v>30</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>10</v>
@@ -8941,7 +8957,7 @@
         <v>30</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>10</v>
@@ -8968,7 +8984,7 @@
         <v>30</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>10</v>
@@ -9049,7 +9065,7 @@
         <v>30</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>10</v>
@@ -9103,7 +9119,7 @@
         <v>30</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>10</v>
@@ -9126,9 +9142,11 @@
         <f t="shared" si="4"/>
         <v>314</v>
       </c>
-      <c r="B315" s="4"/>
-      <c r="C315" s="4" t="s">
-        <v>45</v>
+      <c r="B315" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>10</v>
@@ -9155,7 +9173,7 @@
         <v>30</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>10</v>
@@ -9236,7 +9254,7 @@
         <v>30</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>11</v>
@@ -9290,7 +9308,7 @@
         <v>30</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>10</v>
@@ -9344,7 +9362,7 @@
         <v>30</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>10</v>
@@ -9371,7 +9389,7 @@
         <v>30</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>10</v>
@@ -9425,7 +9443,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>10</v>
@@ -9452,7 +9470,7 @@
         <v>30</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>10</v>
@@ -9479,7 +9497,7 @@
         <v>30</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>10</v>
@@ -9506,7 +9524,7 @@
         <v>30</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>11</v>
@@ -9533,7 +9551,7 @@
         <v>30</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>11</v>
@@ -9614,7 +9632,7 @@
         <v>30</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>10</v>
@@ -9641,7 +9659,7 @@
         <v>30</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D334" s="4" t="s">
         <v>10</v>
@@ -9722,7 +9740,7 @@
         <v>30</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>10</v>
@@ -9749,7 +9767,7 @@
         <v>30</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>10</v>
@@ -9776,7 +9794,7 @@
         <v>30</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>11</v>
@@ -9803,7 +9821,7 @@
         <v>30</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>11</v>
@@ -9884,7 +9902,7 @@
         <v>30</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>10</v>
@@ -9911,7 +9929,7 @@
         <v>30</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>10</v>
@@ -10044,7 +10062,7 @@
         <v>30</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>11</v>
@@ -10098,7 +10116,7 @@
         <v>30</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>11</v>
@@ -10125,7 +10143,7 @@
         <v>30</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>10</v>
@@ -10152,7 +10170,7 @@
         <v>30</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>10</v>
@@ -10179,7 +10197,7 @@
         <v>30</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D354" s="4" t="s">
         <v>10</v>
@@ -10206,7 +10224,7 @@
         <v>30</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D355" s="4" t="s">
         <v>10</v>
@@ -10233,7 +10251,7 @@
         <v>30</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>11</v>
@@ -10260,7 +10278,7 @@
         <v>30</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>11</v>
@@ -10310,9 +10328,11 @@
         <f t="shared" si="5"/>
         <v>358</v>
       </c>
-      <c r="B359" s="4"/>
-      <c r="C359" s="4" t="s">
-        <v>45</v>
+      <c r="B359" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>11</v>
@@ -10335,9 +10355,11 @@
         <f t="shared" si="5"/>
         <v>359</v>
       </c>
-      <c r="B360" s="4"/>
-      <c r="C360" s="4" t="s">
-        <v>45</v>
+      <c r="B360" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>10</v>
@@ -10364,7 +10386,7 @@
         <v>30</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>10</v>
@@ -10445,7 +10467,7 @@
         <v>30</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>11</v>
@@ -10634,7 +10656,7 @@
         <v>30</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>10</v>
@@ -10661,7 +10683,7 @@
         <v>30</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>10</v>
@@ -10688,7 +10710,7 @@
         <v>30</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>10</v>
@@ -10715,7 +10737,7 @@
         <v>30</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>10</v>
@@ -10742,7 +10764,7 @@
         <v>30</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>10</v>
@@ -10796,7 +10818,7 @@
         <v>30</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>10</v>
@@ -10823,7 +10845,7 @@
         <v>30</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>10</v>
@@ -10904,7 +10926,7 @@
         <v>30</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>10</v>
@@ -10931,7 +10953,7 @@
         <v>30</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>10</v>
@@ -11039,7 +11061,7 @@
         <v>30</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>10</v>
@@ -11093,7 +11115,7 @@
         <v>30</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>11</v>
@@ -11120,7 +11142,7 @@
         <v>30</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>11</v>
@@ -11147,7 +11169,7 @@
         <v>30</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>11</v>
@@ -11228,7 +11250,7 @@
         <v>30</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>10</v>
@@ -11280,7 +11302,7 @@
         <v>30</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>10</v>
@@ -11307,7 +11329,7 @@
         <v>30</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>10</v>
@@ -11334,7 +11356,7 @@
         <v>30</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>10</v>
@@ -11361,7 +11383,7 @@
         <v>30</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>10</v>
